--- a/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik september 2024.xlsx
+++ b/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik september 2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -811,7 +811,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -832,25 +832,16 @@
     <t>1% filler,14% containsTotalMass,14% containsSingleMass,14% containsProduct,14% containsProductNr,14% containsAmount,14% SingleMassHeader,14% TotalMassHeader,</t>
   </si>
   <si>
-    <t>2% filler,21% containsSingleMass,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -880,7 +871,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,7 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -970,16 +961,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF828081"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7499D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1017,7 +998,7 @@
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1071,8 +1052,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1081,17 +1060,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="24" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4191,7 +4178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA6F99C-46C9-4730-89F6-8BCA047D6797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF1ED7B-01C6-4E98-858A-89FAC4E041A9}">
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
@@ -4616,9 +4603,6 @@
       <c r="G18" s="27">
         <v>126</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="31" t="s">
@@ -4643,9 +4627,6 @@
       <c r="G19" s="28">
         <v>1001.44</v>
       </c>
-      <c r="H19" s="38" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="31" t="s">
@@ -6358,7 +6339,7 @@
       <c r="B91" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="37" t="s">
+      <c r="C91" s="34" t="s">
         <v>197</v>
       </c>
       <c r="D91" s="30">
@@ -6382,7 +6363,7 @@
       <c r="B92" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="34" t="s">
         <v>199</v>
       </c>
       <c r="D92" s="30">
@@ -6406,7 +6387,7 @@
       <c r="B93" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="33" t="s">
         <v>201</v>
       </c>
       <c r="D93" s="30">
@@ -6430,7 +6411,7 @@
       <c r="B94" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="33" t="s">
         <v>203</v>
       </c>
       <c r="D94" s="30">
@@ -6523,7 +6504,7 @@
       <c r="A98" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B98" s="37">
         <v>3040</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -6531,11 +6512,11 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="40">
+      <c r="F98" s="38">
         <f>SUM(F7:F97)</f>
         <v>2346</v>
       </c>
-      <c r="G98" s="41">
+      <c r="G98" s="39">
         <f>SUM(G7:G97)</f>
         <v>98103.52999999998</v>
       </c>
@@ -6932,7 +6913,7 @@
       <c r="A116" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B116" s="39">
+      <c r="B116" s="37">
         <v>3040</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -6940,11 +6921,11 @@
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="40">
+      <c r="F116" s="38">
         <f>SUM(F101:F115)</f>
         <v>924</v>
       </c>
-      <c r="G116" s="41">
+      <c r="G116" s="39">
         <f>SUM(G101:G115)</f>
         <v>28841.19</v>
       </c>
@@ -6979,11 +6960,11 @@
       <c r="E118" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="F118" s="40">
+      <c r="F118" s="38">
         <f>+F98+F116</f>
         <v>3270</v>
       </c>
-      <c r="G118" s="41">
+      <c r="G118" s="39">
         <f>+G98+G116</f>
         <v>126944.71999999999</v>
       </c>
@@ -6996,11 +6977,11 @@
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="8"/>
-      <c r="F119" s="42">
+      <c r="F119" s="40">
         <f>+F116/F118</f>
         <v>0.28256880733944956</v>
       </c>
-      <c r="G119" s="42">
+      <c r="G119" s="40">
         <f>+G116/G118</f>
         <v>0.2271948766360665</v>
       </c>
@@ -7012,7 +6993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC25B0B-B2FB-4A06-A320-AE8DFA25C703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7D2065-848F-4EC4-90E0-9A3F368AD09E}">
   <dimension ref="A2:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
@@ -7078,20 +7059,20 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="F6" s="47" t="s">
         <v>268</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>270</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -7101,10 +7082,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0">
@@ -7113,7 +7094,7 @@
       <c r="E7" s="48">
         <v>4</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="50">
         <f>+D7*E7</f>
         <v>4</v>
       </c>
@@ -7125,10 +7106,10 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7">
@@ -7137,7 +7118,7 @@
       <c r="E8" s="48">
         <v>4</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="50">
         <f ref="F8:F71" t="shared" si="0">+D8*E8</f>
         <v>20</v>
       </c>
@@ -7149,10 +7130,10 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="7">
@@ -7161,7 +7142,7 @@
       <c r="E9" s="48">
         <v>8</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -7173,10 +7154,10 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="7">
@@ -7185,7 +7166,7 @@
       <c r="E10" s="48">
         <v>4</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7197,10 +7178,10 @@
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="7">
@@ -7209,7 +7190,7 @@
       <c r="E11" s="48">
         <v>35</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -7221,10 +7202,10 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="7">
@@ -7233,7 +7214,7 @@
       <c r="E12" s="48">
         <v>17</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="50">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -7245,10 +7226,10 @@
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="7">
@@ -7257,7 +7238,7 @@
       <c r="E13" s="48">
         <v>29</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="50">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -7269,10 +7250,10 @@
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="7">
@@ -7281,7 +7262,7 @@
       <c r="E14" s="48">
         <v>4</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="50">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7293,10 +7274,10 @@
       <c r="A15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="7">
@@ -7305,7 +7286,7 @@
       <c r="E15" s="48">
         <v>22</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="50">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -7317,10 +7298,10 @@
       <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="7">
@@ -7329,7 +7310,7 @@
       <c r="E16" s="48">
         <v>5</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7341,10 +7322,10 @@
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="7">
@@ -7353,7 +7334,7 @@
       <c r="E17" s="48">
         <v>29</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="50">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -7365,10 +7346,10 @@
       <c r="A18" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="7">
@@ -7377,7 +7358,7 @@
       <c r="E18" s="48">
         <v>5</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7389,10 +7370,10 @@
       <c r="A19" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="7">
@@ -7401,7 +7382,7 @@
       <c r="E19" s="48">
         <v>44</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -7413,10 +7394,10 @@
       <c r="A20" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="7">
@@ -7425,7 +7406,7 @@
       <c r="E20" s="48">
         <v>10</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -7437,10 +7418,10 @@
       <c r="A21" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="7">
@@ -7449,7 +7430,7 @@
       <c r="E21" s="48">
         <v>41</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -7461,10 +7442,10 @@
       <c r="A22" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="7">
@@ -7473,7 +7454,7 @@
       <c r="E22" s="48">
         <v>48</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="50">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
@@ -7485,10 +7466,10 @@
       <c r="A23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="7">
@@ -7497,7 +7478,7 @@
       <c r="E23" s="48">
         <v>4</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7509,10 +7490,10 @@
       <c r="A24" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="7">
@@ -7521,7 +7502,7 @@
       <c r="E24" s="48">
         <v>2</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7533,10 +7514,10 @@
       <c r="A25" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="7">
@@ -7545,7 +7526,7 @@
       <c r="E25" s="48">
         <v>11</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="50">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -7557,10 +7538,10 @@
       <c r="A26" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="7">
@@ -7569,7 +7550,7 @@
       <c r="E26" s="48">
         <v>4</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7581,10 +7562,10 @@
       <c r="A27" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="7">
@@ -7593,7 +7574,7 @@
       <c r="E27" s="48">
         <v>1</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7605,10 +7586,10 @@
       <c r="A28" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="7">
@@ -7617,7 +7598,7 @@
       <c r="E28" s="48">
         <v>3</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7629,10 +7610,10 @@
       <c r="A29" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="45" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="7">
@@ -7641,7 +7622,7 @@
       <c r="E29" s="48">
         <v>6</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7653,10 +7634,10 @@
       <c r="A30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="7">
@@ -7665,7 +7646,7 @@
       <c r="E30" s="48">
         <v>6</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="50">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7677,10 +7658,10 @@
       <c r="A31" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="7">
@@ -7689,7 +7670,7 @@
       <c r="E31" s="48">
         <v>12</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -7701,10 +7682,10 @@
       <c r="A32" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="7">
@@ -7713,7 +7694,7 @@
       <c r="E32" s="48">
         <v>10</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="50">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -7725,10 +7706,10 @@
       <c r="A33" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="45" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="7">
@@ -7737,7 +7718,7 @@
       <c r="E33" s="48">
         <v>12</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -7749,10 +7730,10 @@
       <c r="A34" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="7">
@@ -7761,7 +7742,7 @@
       <c r="E34" s="48">
         <v>23</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="50">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -7773,10 +7754,10 @@
       <c r="A35" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="45" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="7">
@@ -7785,7 +7766,7 @@
       <c r="E35" s="48">
         <v>2</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7797,10 +7778,10 @@
       <c r="A36" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="45" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="7">
@@ -7809,7 +7790,7 @@
       <c r="E36" s="48">
         <v>3</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7821,10 +7802,10 @@
       <c r="A37" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="45" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="7">
@@ -7833,7 +7814,7 @@
       <c r="E37" s="48">
         <v>2</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F37" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7845,10 +7826,10 @@
       <c r="A38" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="7">
@@ -7857,7 +7838,7 @@
       <c r="E38" s="48">
         <v>5</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F38" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7869,10 +7850,10 @@
       <c r="A39" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="45" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="7">
@@ -7881,7 +7862,7 @@
       <c r="E39" s="48">
         <v>30</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F39" s="50">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -7893,10 +7874,10 @@
       <c r="A40" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="45" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="7">
@@ -7905,7 +7886,7 @@
       <c r="E40" s="48">
         <v>3</v>
       </c>
-      <c r="F40" s="49">
+      <c r="F40" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7917,10 +7898,10 @@
       <c r="A41" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="45" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="7">
@@ -7929,7 +7910,7 @@
       <c r="E41" s="48">
         <v>3</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7941,10 +7922,10 @@
       <c r="A42" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="7">
@@ -7953,7 +7934,7 @@
       <c r="E42" s="48">
         <v>2</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7965,10 +7946,10 @@
       <c r="A43" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="45" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="7">
@@ -7977,7 +7958,7 @@
       <c r="E43" s="48">
         <v>6</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7989,10 +7970,10 @@
       <c r="A44" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="7">
@@ -8001,7 +7982,7 @@
       <c r="E44" s="48">
         <v>5</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8013,10 +7994,10 @@
       <c r="A45" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="45" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="7">
@@ -8025,7 +8006,7 @@
       <c r="E45" s="48">
         <v>1</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8037,10 +8018,10 @@
       <c r="A46" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="45" t="s">
         <v>98</v>
       </c>
       <c r="D46" s="7">
@@ -8049,7 +8030,7 @@
       <c r="E46" s="48">
         <v>3</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8061,10 +8042,10 @@
       <c r="A47" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="45" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="7">
@@ -8073,7 +8054,7 @@
       <c r="E47" s="48">
         <v>4</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8085,10 +8066,10 @@
       <c r="A48" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="45" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="7">
@@ -8097,7 +8078,7 @@
       <c r="E48" s="48">
         <v>5</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8109,10 +8090,10 @@
       <c r="A49" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="45" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="7">
@@ -8121,7 +8102,7 @@
       <c r="E49" s="48">
         <v>24</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="50">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -8133,10 +8114,10 @@
       <c r="A50" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="45" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="7">
@@ -8145,7 +8126,7 @@
       <c r="E50" s="48">
         <v>2</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8157,10 +8138,10 @@
       <c r="A51" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="45" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="7">
@@ -8169,7 +8150,7 @@
       <c r="E51" s="48">
         <v>1</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8181,10 +8162,10 @@
       <c r="A52" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="45" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="7">
@@ -8193,7 +8174,7 @@
       <c r="E52" s="48">
         <v>1</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8205,10 +8186,10 @@
       <c r="A53" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="45" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="7">
@@ -8217,7 +8198,7 @@
       <c r="E53" s="48">
         <v>62</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="50">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
@@ -8229,10 +8210,10 @@
       <c r="A54" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="45" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="7">
@@ -8241,7 +8222,7 @@
       <c r="E54" s="48">
         <v>1</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8253,10 +8234,10 @@
       <c r="A55" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="45" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="7">
@@ -8265,7 +8246,7 @@
       <c r="E55" s="48">
         <v>15</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8277,10 +8258,10 @@
       <c r="A56" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="7">
@@ -8289,7 +8270,7 @@
       <c r="E56" s="48">
         <v>5</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8301,10 +8282,10 @@
       <c r="A57" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="45" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="7">
@@ -8313,7 +8294,7 @@
       <c r="E57" s="48">
         <v>2</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8325,10 +8306,10 @@
       <c r="A58" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="45" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="7">
@@ -8337,7 +8318,7 @@
       <c r="E58" s="48">
         <v>11</v>
       </c>
-      <c r="F58" s="49">
+      <c r="F58" s="50">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -8349,10 +8330,10 @@
       <c r="A59" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="45" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="7">
@@ -8361,7 +8342,7 @@
       <c r="E59" s="48">
         <v>1</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8373,10 +8354,10 @@
       <c r="A60" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="45" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="7">
@@ -8385,7 +8366,7 @@
       <c r="E60" s="48">
         <v>50</v>
       </c>
-      <c r="F60" s="49">
+      <c r="F60" s="50">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -8397,10 +8378,10 @@
       <c r="A61" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="45" t="s">
         <v>131</v>
       </c>
       <c r="D61" s="7">
@@ -8409,7 +8390,7 @@
       <c r="E61" s="48">
         <v>3</v>
       </c>
-      <c r="F61" s="49">
+      <c r="F61" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8421,10 +8402,10 @@
       <c r="A62" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="45" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="7">
@@ -8433,7 +8414,7 @@
       <c r="E62" s="48">
         <v>25</v>
       </c>
-      <c r="F62" s="49">
+      <c r="F62" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8445,10 +8426,10 @@
       <c r="A63" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="45" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="7">
@@ -8457,7 +8438,7 @@
       <c r="E63" s="48">
         <v>14</v>
       </c>
-      <c r="F63" s="49">
+      <c r="F63" s="50">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8469,10 +8450,10 @@
       <c r="A64" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D64" s="7">
@@ -8481,7 +8462,7 @@
       <c r="E64" s="48">
         <v>25</v>
       </c>
-      <c r="F64" s="49">
+      <c r="F64" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8493,10 +8474,10 @@
       <c r="A65" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="45" t="s">
         <v>140</v>
       </c>
       <c r="D65" s="7">
@@ -8505,7 +8486,7 @@
       <c r="E65" s="48">
         <v>1</v>
       </c>
-      <c r="F65" s="49">
+      <c r="F65" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8517,10 +8498,10 @@
       <c r="A66" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D66" s="7">
@@ -8529,7 +8510,7 @@
       <c r="E66" s="48">
         <v>7</v>
       </c>
-      <c r="F66" s="49">
+      <c r="F66" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -8541,10 +8522,10 @@
       <c r="A67" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="45" t="s">
         <v>144</v>
       </c>
       <c r="D67" s="7">
@@ -8553,7 +8534,7 @@
       <c r="E67" s="48">
         <v>10</v>
       </c>
-      <c r="F67" s="49">
+      <c r="F67" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8565,10 +8546,10 @@
       <c r="A68" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="45" t="s">
         <v>146</v>
       </c>
       <c r="D68" s="7">
@@ -8577,7 +8558,7 @@
       <c r="E68" s="48">
         <v>9</v>
       </c>
-      <c r="F68" s="49">
+      <c r="F68" s="50">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -8589,10 +8570,10 @@
       <c r="A69" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="45" t="s">
         <v>148</v>
       </c>
       <c r="D69" s="7">
@@ -8601,7 +8582,7 @@
       <c r="E69" s="48">
         <v>46</v>
       </c>
-      <c r="F69" s="49">
+      <c r="F69" s="50">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -8613,10 +8594,10 @@
       <c r="A70" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="45" t="s">
         <v>150</v>
       </c>
       <c r="D70" s="7">
@@ -8625,7 +8606,7 @@
       <c r="E70" s="48">
         <v>7</v>
       </c>
-      <c r="F70" s="49">
+      <c r="F70" s="50">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -8637,10 +8618,10 @@
       <c r="A71" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="45" t="s">
         <v>152</v>
       </c>
       <c r="D71" s="7">
@@ -8649,7 +8630,7 @@
       <c r="E71" s="48">
         <v>3</v>
       </c>
-      <c r="F71" s="49">
+      <c r="F71" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -8661,10 +8642,10 @@
       <c r="A72" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="C72" s="45" t="s">
         <v>154</v>
       </c>
       <c r="D72" s="7">
@@ -8673,7 +8654,7 @@
       <c r="E72" s="48">
         <v>13</v>
       </c>
-      <c r="F72" s="49">
+      <c r="F72" s="50">
         <f ref="F72:F115" t="shared" si="1">+D72*E72</f>
         <v>65</v>
       </c>
@@ -8685,10 +8666,10 @@
       <c r="A73" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="45" t="s">
         <v>157</v>
       </c>
       <c r="D73" s="7">
@@ -8697,7 +8678,7 @@
       <c r="E73" s="48">
         <v>10</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F73" s="50">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8709,10 +8690,10 @@
       <c r="A74" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C74" s="45" t="s">
         <v>159</v>
       </c>
       <c r="D74" s="7">
@@ -8721,7 +8702,7 @@
       <c r="E74" s="48">
         <v>31</v>
       </c>
-      <c r="F74" s="49">
+      <c r="F74" s="50">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -8733,10 +8714,10 @@
       <c r="A75" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="45" t="s">
         <v>161</v>
       </c>
       <c r="D75" s="7">
@@ -8745,7 +8726,7 @@
       <c r="E75" s="48">
         <v>1</v>
       </c>
-      <c r="F75" s="49">
+      <c r="F75" s="50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8757,10 +8738,10 @@
       <c r="A76" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="45" t="s">
         <v>163</v>
       </c>
       <c r="D76" s="7">
@@ -8769,7 +8750,7 @@
       <c r="E76" s="48">
         <v>8</v>
       </c>
-      <c r="F76" s="49">
+      <c r="F76" s="50">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -8781,10 +8762,10 @@
       <c r="A77" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="46" t="s">
+      <c r="C77" s="45" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="7">
@@ -8793,7 +8774,7 @@
       <c r="E77" s="48">
         <v>4</v>
       </c>
-      <c r="F77" s="49">
+      <c r="F77" s="50">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -8805,10 +8786,10 @@
       <c r="A78" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="46" t="s">
+      <c r="C78" s="45" t="s">
         <v>167</v>
       </c>
       <c r="D78" s="7">
@@ -8817,7 +8798,7 @@
       <c r="E78" s="48">
         <v>10</v>
       </c>
-      <c r="F78" s="49">
+      <c r="F78" s="50">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8829,10 +8810,10 @@
       <c r="A79" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="45" t="s">
         <v>169</v>
       </c>
       <c r="D79" s="7">
@@ -8841,7 +8822,7 @@
       <c r="E79" s="48">
         <v>1</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8853,10 +8834,10 @@
       <c r="A80" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="46" t="s">
+      <c r="C80" s="45" t="s">
         <v>171</v>
       </c>
       <c r="D80" s="7">
@@ -8865,7 +8846,7 @@
       <c r="E80" s="48">
         <v>7</v>
       </c>
-      <c r="F80" s="49">
+      <c r="F80" s="50">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -8877,10 +8858,10 @@
       <c r="A81" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="46" t="s">
+      <c r="C81" s="45" t="s">
         <v>173</v>
       </c>
       <c r="D81" s="7">
@@ -8889,7 +8870,7 @@
       <c r="E81" s="48">
         <v>3</v>
       </c>
-      <c r="F81" s="49">
+      <c r="F81" s="50">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -8901,10 +8882,10 @@
       <c r="A82" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="46" t="s">
+      <c r="C82" s="45" t="s">
         <v>175</v>
       </c>
       <c r="D82" s="7">
@@ -8913,7 +8894,7 @@
       <c r="E82" s="48">
         <v>13</v>
       </c>
-      <c r="F82" s="49">
+      <c r="F82" s="50">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -8925,10 +8906,10 @@
       <c r="A83" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="46" t="s">
+      <c r="C83" s="45" t="s">
         <v>178</v>
       </c>
       <c r="D83" s="7">
@@ -8937,7 +8918,7 @@
       <c r="E83" s="48">
         <v>86</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="50">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
@@ -8949,10 +8930,10 @@
       <c r="A84" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C84" s="46" t="s">
+      <c r="C84" s="45" t="s">
         <v>180</v>
       </c>
       <c r="D84" s="7">
@@ -8961,7 +8942,7 @@
       <c r="E84" s="48">
         <v>9</v>
       </c>
-      <c r="F84" s="49">
+      <c r="F84" s="50">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -8973,10 +8954,10 @@
       <c r="A85" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="46" t="s">
+      <c r="C85" s="45" t="s">
         <v>183</v>
       </c>
       <c r="D85" s="7">
@@ -8985,7 +8966,7 @@
       <c r="E85" s="48">
         <v>2</v>
       </c>
-      <c r="F85" s="49">
+      <c r="F85" s="50">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8997,10 +8978,10 @@
       <c r="A86" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="46" t="s">
+      <c r="C86" s="45" t="s">
         <v>185</v>
       </c>
       <c r="D86" s="7">
@@ -9009,7 +8990,7 @@
       <c r="E86" s="48">
         <v>5</v>
       </c>
-      <c r="F86" s="49">
+      <c r="F86" s="50">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -9021,10 +9002,10 @@
       <c r="A87" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="46" t="s">
+      <c r="C87" s="45" t="s">
         <v>187</v>
       </c>
       <c r="D87" s="7">
@@ -9033,7 +9014,7 @@
       <c r="E87" s="48">
         <v>28</v>
       </c>
-      <c r="F87" s="49">
+      <c r="F87" s="50">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -9045,10 +9026,10 @@
       <c r="A88" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="45" t="s">
         <v>189</v>
       </c>
       <c r="D88" s="7">
@@ -9057,7 +9038,7 @@
       <c r="E88" s="48">
         <v>11</v>
       </c>
-      <c r="F88" s="49">
+      <c r="F88" s="50">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -9069,10 +9050,10 @@
       <c r="A89" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="46" t="s">
+      <c r="C89" s="45" t="s">
         <v>191</v>
       </c>
       <c r="D89" s="7">
@@ -9081,7 +9062,7 @@
       <c r="E89" s="48">
         <v>8</v>
       </c>
-      <c r="F89" s="49">
+      <c r="F89" s="50">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -9093,10 +9074,10 @@
       <c r="A90" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="46" t="s">
+      <c r="C90" s="45" t="s">
         <v>194</v>
       </c>
       <c r="D90" s="7">
@@ -9105,7 +9086,7 @@
       <c r="E90" s="48">
         <v>44</v>
       </c>
-      <c r="F90" s="49">
+      <c r="F90" s="50">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -9117,19 +9098,19 @@
       <c r="A91" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="45" t="s">
         <v>197</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="48">
         <v>24</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="50">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -9141,19 +9122,19 @@
       <c r="A92" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="45" t="s">
         <v>199</v>
       </c>
       <c r="D92" s="7">
         <v>5</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="48">
         <v>12</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="50">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -9165,19 +9146,19 @@
       <c r="A93" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="45" t="s">
         <v>201</v>
       </c>
       <c r="D93" s="7">
         <v>1</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="48">
         <v>18</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="50">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -9189,19 +9170,19 @@
       <c r="A94" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="45" t="s">
         <v>203</v>
       </c>
       <c r="D94" s="7">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="48">
         <v>15</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="50">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -9213,19 +9194,19 @@
       <c r="A95" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="45" t="s">
         <v>206</v>
       </c>
       <c r="D95" s="7">
         <v>1</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="48">
         <v>4</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="50">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9237,19 +9218,19 @@
       <c r="A96" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="45" t="s">
         <v>208</v>
       </c>
       <c r="D96" s="7">
         <v>1</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="48">
         <v>26</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="50">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -9261,19 +9242,19 @@
       <c r="A97" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="45" t="s">
         <v>210</v>
       </c>
       <c r="D97" s="7">
         <v>5</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="48">
         <v>19</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="50">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -9285,15 +9266,15 @@
       <c r="A98" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="44">
         <v>3040</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="46" t="s">
         <v>212</v>
       </c>
       <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="4">
+      <c r="E98" s="49"/>
+      <c r="F98" s="51">
         <f>SUM(F7:F97)</f>
         <v>2346</v>
       </c>
@@ -9311,20 +9292,20 @@
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C100" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="47" t="s">
-        <v>269</v>
-      </c>
       <c r="F100" s="47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>10</v>
@@ -9334,10 +9315,10 @@
       <c r="A101" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="46" t="s">
+      <c r="C101" s="45" t="s">
         <v>215</v>
       </c>
       <c r="D101" s="7">
@@ -9346,7 +9327,7 @@
       <c r="E101" s="48">
         <v>5</v>
       </c>
-      <c r="F101" s="49">
+      <c r="F101" s="50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9358,10 +9339,10 @@
       <c r="A102" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="46" t="s">
+      <c r="C102" s="45" t="s">
         <v>218</v>
       </c>
       <c r="D102" s="7">
@@ -9370,7 +9351,7 @@
       <c r="E102" s="48">
         <v>70</v>
       </c>
-      <c r="F102" s="49">
+      <c r="F102" s="50">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -9382,10 +9363,10 @@
       <c r="A103" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="46" t="s">
+      <c r="C103" s="45" t="s">
         <v>220</v>
       </c>
       <c r="D103" s="7">
@@ -9394,7 +9375,7 @@
       <c r="E103" s="48">
         <v>29</v>
       </c>
-      <c r="F103" s="49">
+      <c r="F103" s="50">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
@@ -9406,10 +9387,10 @@
       <c r="A104" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="46" t="s">
+      <c r="C104" s="45" t="s">
         <v>222</v>
       </c>
       <c r="D104" s="7">
@@ -9418,7 +9399,7 @@
       <c r="E104" s="48">
         <v>107</v>
       </c>
-      <c r="F104" s="49">
+      <c r="F104" s="50">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
@@ -9430,10 +9411,10 @@
       <c r="A105" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="46" t="s">
+      <c r="C105" s="45" t="s">
         <v>224</v>
       </c>
       <c r="D105" s="7">
@@ -9442,7 +9423,7 @@
       <c r="E105" s="48">
         <v>88</v>
       </c>
-      <c r="F105" s="49">
+      <c r="F105" s="50">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
@@ -9454,10 +9435,10 @@
       <c r="A106" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="46" t="s">
+      <c r="C106" s="45" t="s">
         <v>226</v>
       </c>
       <c r="D106" s="7">
@@ -9466,7 +9447,7 @@
       <c r="E106" s="48">
         <v>1</v>
       </c>
-      <c r="F106" s="49">
+      <c r="F106" s="50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -9478,10 +9459,10 @@
       <c r="A107" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="46" t="s">
+      <c r="C107" s="45" t="s">
         <v>228</v>
       </c>
       <c r="D107" s="7">
@@ -9490,7 +9471,7 @@
       <c r="E107" s="48">
         <v>7</v>
       </c>
-      <c r="F107" s="49">
+      <c r="F107" s="50">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -9502,10 +9483,10 @@
       <c r="A108" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="46" t="s">
+      <c r="C108" s="45" t="s">
         <v>230</v>
       </c>
       <c r="D108" s="7">
@@ -9514,7 +9495,7 @@
       <c r="E108" s="48">
         <v>9</v>
       </c>
-      <c r="F108" s="49">
+      <c r="F108" s="50">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -9526,10 +9507,10 @@
       <c r="A109" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="46" t="s">
+      <c r="C109" s="45" t="s">
         <v>232</v>
       </c>
       <c r="D109" s="7">
@@ -9538,7 +9519,7 @@
       <c r="E109" s="48">
         <v>1</v>
       </c>
-      <c r="F109" s="49">
+      <c r="F109" s="50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9550,10 +9531,10 @@
       <c r="A110" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="46" t="s">
+      <c r="C110" s="45" t="s">
         <v>234</v>
       </c>
       <c r="D110" s="7">
@@ -9562,7 +9543,7 @@
       <c r="E110" s="48">
         <v>1</v>
       </c>
-      <c r="F110" s="49">
+      <c r="F110" s="50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -9574,10 +9555,10 @@
       <c r="A111" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="46" t="s">
+      <c r="C111" s="45" t="s">
         <v>236</v>
       </c>
       <c r="D111" s="7">
@@ -9586,7 +9567,7 @@
       <c r="E111" s="48">
         <v>3</v>
       </c>
-      <c r="F111" s="49">
+      <c r="F111" s="50">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -9598,10 +9579,10 @@
       <c r="A112" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C112" s="46" t="s">
+      <c r="C112" s="45" t="s">
         <v>238</v>
       </c>
       <c r="D112" s="7">
@@ -9610,7 +9591,7 @@
       <c r="E112" s="48">
         <v>7</v>
       </c>
-      <c r="F112" s="49">
+      <c r="F112" s="50">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -9622,10 +9603,10 @@
       <c r="A113" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C113" s="46" t="s">
+      <c r="C113" s="45" t="s">
         <v>240</v>
       </c>
       <c r="D113" s="7">
@@ -9634,7 +9615,7 @@
       <c r="E113" s="48">
         <v>13</v>
       </c>
-      <c r="F113" s="49">
+      <c r="F113" s="50">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -9646,10 +9627,10 @@
       <c r="A114" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="46" t="s">
+      <c r="C114" s="45" t="s">
         <v>242</v>
       </c>
       <c r="D114" s="7">
@@ -9658,7 +9639,7 @@
       <c r="E114" s="48">
         <v>4</v>
       </c>
-      <c r="F114" s="49">
+      <c r="F114" s="50">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9670,10 +9651,10 @@
       <c r="A115" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="46" t="s">
+      <c r="C115" s="45" t="s">
         <v>244</v>
       </c>
       <c r="D115" s="7">
@@ -9682,7 +9663,7 @@
       <c r="E115" s="48">
         <v>3</v>
       </c>
-      <c r="F115" s="49">
+      <c r="F115" s="50">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -9694,15 +9675,15 @@
       <c r="A116" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="44">
         <v>3040</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="46" t="s">
         <v>212</v>
       </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="4">
+      <c r="E116" s="49"/>
+      <c r="F116" s="51">
         <f>SUM(F101:F115)</f>
         <v>924</v>
       </c>
